--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_18_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_18_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58701.73321374614</v>
+        <v>11681644.90953547</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58701.73321374614</v>
+        <v>11681644.90953547</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.7293166692524</v>
+        <v>15028.73097956447</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>232.7293166692524</v>
+        <v>15028.73097956447</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036125991.600972</v>
+        <v>42881742.46769887</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9029.105119069918</v>
+        <v>1013824.068029952</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17001.64856188669</v>
+        <v>1863249.102201126</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24974.19200470346</v>
+        <v>2712674.136372302</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32980.74460388385</v>
+        <v>3564834.946612568</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40976.60629397335</v>
+        <v>4414868.265943742</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48972.46798406285</v>
+        <v>5264901.585274915</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56968.32967415234</v>
+        <v>6114934.904606086</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64964.19136424184</v>
+        <v>6964968.223937256</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72961.81355339268</v>
+        <v>7815189.558889028</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>80958.72301527079</v>
+        <v>8665269.061113525</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88955.63247714887</v>
+        <v>9515348.563338028</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96917.94352036697</v>
+        <v>10362834.71496898</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>104890.945472676</v>
+        <v>11212448.35750902</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>112863.947424985</v>
+        <v>12062062.00004906</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>120836.949377294</v>
+        <v>12911675.6425891</v>
       </c>
     </row>
   </sheetData>
@@ -27040,25 +27040,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>396</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>396</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,10 +27144,10 @@
         <v>377</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -27156,10 +27156,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
